--- a/Gen_3/out/6.xlsx
+++ b/Gen_3/out/6.xlsx
@@ -1815,7 +1815,11 @@
           <t>gen_match</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Соответствует</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">

--- a/Gen_3/out/6.xlsx
+++ b/Gen_3/out/6.xlsx
@@ -1952,7 +1952,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -1960,7 +1960,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser2</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -1984,7 +1984,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -1992,7 +1992,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -2000,7 +2000,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser3</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -2016,7 +2016,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser3</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -2040,7 +2040,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser4</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser4</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -2056,7 +2056,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser4</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -2064,7 +2064,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser4</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser5</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -2080,7 +2080,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser5</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -2088,7 +2088,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser5</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser5</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -2104,7 +2104,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser5</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -2112,7 +2112,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser6</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -2120,7 +2120,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser6</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -2128,7 +2128,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser6</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -2136,7 +2136,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser6</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -2144,7 +2144,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser6</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -2152,7 +2152,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser7</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -2160,7 +2160,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser7</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser7</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -2176,7 +2176,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser7</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -2184,7 +2184,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser7</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -2192,7 +2192,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser8</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser8</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser8</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -2216,7 +2216,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser8</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser8</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -2232,7 +2232,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser9</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -2240,7 +2240,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser9</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -2248,7 +2248,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser9</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -2256,7 +2256,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser9</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser9</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -2272,7 +2272,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser10</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser10</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser10</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -2296,7 +2296,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser10</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser10</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser11</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -2320,7 +2320,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -2328,7 +2328,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -2344,7 +2344,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser11</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -2352,7 +2352,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser12</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser12</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser12</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser12</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -2384,7 +2384,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser12</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -2392,7 +2392,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser13</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -2400,7 +2400,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser13</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -2408,7 +2408,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser13</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -2424,7 +2424,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser13</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser14</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser14</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -2448,7 +2448,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser14</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -2456,7 +2456,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser14</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser14</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -2472,7 +2472,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux_ser15</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_ser15</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
+          <t>flam_time_ser15</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>flam_dop_inf</t>
+          <t>flam_dop_inf_ser15</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -2504,7 +2504,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>exp_num</t>
+          <t>exp_num_ser15</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
